--- a/Two-stage Recoverable FLP/experiment_p0/output.xlsx
+++ b/Two-stage Recoverable FLP/experiment_p0/output.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,52 +465,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>591</v>
+        <v>537.5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>591</v>
+        <v>537.5</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>591</v>
+        <v>537.5</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -539,34 +539,34 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>527.5</v>
+        <v>560</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -577,52 +577,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>603.5</v>
+        <v>541</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>603.5</v>
+        <v>541</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>603.5</v>
+        <v>541</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -633,52 +633,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>565.5</v>
+        <v>534.5</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.58</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>565.5</v>
+        <v>534.5</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>565.5</v>
+        <v>534.5</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -692,49 +692,49 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0.92</v>
+        <v>0.11</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K6">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -748,49 +748,49 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>557</v>
+        <v>504.5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>504.5</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>557</v>
+        <v>504.5</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="K8">
         <v>25</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -905,6 +905,1742 @@
         <v>486.5</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.71</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>510.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.57</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>510.5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>510.5</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.29</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>581.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.54</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>581.5</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>581.5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.36</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>515.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.98</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>515.5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.45</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>515.5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.47</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>606</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>606</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.62</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>606</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.48</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>606</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.92</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>606</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.57</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>606</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0.42</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>560.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.96</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>560.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.52</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>560.5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0.33</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>537</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.91</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>537</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.45</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>537</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2.05</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>580</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.39</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>580</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.54</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>580</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>576.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.22</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>576.5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.4</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>576.5</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3.1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>592.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.99</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>592.5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.31</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>592.5</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>0.47</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>591</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.5</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>591</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.76</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>591</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>0.48</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>572.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.23</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>572.5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.54</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>572.5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1.02</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>594.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.61</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>594.5</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1.3</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>594.5</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.77</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>658</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.49</v>
+      </c>
+      <c r="K23">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>658</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.26</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>658</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.14</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>622</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.88</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>622</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.29</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>622</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1.07</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>597</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.17</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>597</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.36</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>597</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1.54</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>604.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2.37</v>
+      </c>
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>604.5</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1.62</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>604.5</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.85</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>563</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.07</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>563</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1.46</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>563</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0.98</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>626</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.34</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>626</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1.46</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>626</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>647.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.23</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>647.5</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1.33</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>647.5</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>1.47</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>682.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.69</v>
+      </c>
+      <c r="K30">
+        <v>33</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>682.5</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1.25</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>682.5</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>1.8</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>616</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.32</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>616</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1.77</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>616</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1.79</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>640.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3.1</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>640.5</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>3.25</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>640.5</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>646.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>3.08</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>646.5</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>2.97</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>646.5</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1.88</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>625.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3.44</v>
+      </c>
+      <c r="K34">
+        <v>28</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>625.5</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>3.42</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>625.5</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1.97</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>638.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4.18</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>638.5</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>3.01</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>638.5</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1.42</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>625.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2.94</v>
+      </c>
+      <c r="K36">
+        <v>24</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>625.5</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>2.72</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>625.5</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>3.23</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>630</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.39</v>
+      </c>
+      <c r="K37">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>630</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>3.53</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>630</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>1.9</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>630</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4.56</v>
+      </c>
+      <c r="K38">
+        <v>39</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>630</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>2.81</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>630</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1.51</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>715</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3.8</v>
+      </c>
+      <c r="K39">
+        <v>32</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>715</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>3.01</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>715</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1.71</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>588</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.89</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>588</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>2.99</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>588</v>
+      </c>
+      <c r="R40">
         <v>0</v>
       </c>
     </row>

--- a/Two-stage Recoverable FLP/experiment_p0/output.xlsx
+++ b/Two-stage Recoverable FLP/experiment_p0/output.xlsx
@@ -468,49 +468,49 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>3.72</v>
+        <v>44.21</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>351.5</v>
+        <v>340.5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.27</v>
+        <v>163.56</v>
       </c>
       <c r="K2">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>351.5</v>
+        <v>340.5</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>43.3</v>
+        <v>337.15</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>351.5</v>
+        <v>340.5</v>
       </c>
       <c r="R2">
         <v>0</v>

--- a/Two-stage Recoverable FLP/experiment_p0/output.xlsx
+++ b/Two-stage Recoverable FLP/experiment_p0/output.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,54 +465,2406 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>122</v>
+      </c>
+      <c r="E2">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>565</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>565</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>565</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>0.53</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>554.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>554.5</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.16</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>554.5</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>559.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>559.5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.12</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>559.5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>125</v>
+      </c>
+      <c r="E5">
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>536.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>536.5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.12</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>536.5</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>126</v>
+      </c>
+      <c r="E6">
+        <v>0.34</v>
+      </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>570</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.73</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>570</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.19</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>570</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0.17</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>406.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.41</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>406.5</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>406.5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>0.17</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>498</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.12</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>498</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.16</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>498</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>129</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>561</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>561</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.19</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>561</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
+      <c r="E10">
+        <v>0.28</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>505.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>505.5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.36</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>505.5</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>546</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>546</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.17</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>546</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="D12">
+        <v>132</v>
+      </c>
+      <c r="E12">
+        <v>0.37</v>
+      </c>
+      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>511.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.08</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>511.5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.39</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>511.5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>133</v>
+      </c>
+      <c r="E13">
+        <v>0.64</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>622.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.91</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>622.5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.33</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>622.5</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>0.42</v>
+      </c>
+      <c r="F14">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>586</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.16</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>586</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.36</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>586</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>135</v>
+      </c>
+      <c r="E15">
+        <v>0.44</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>530.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.86</v>
+      </c>
+      <c r="K15">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>530.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.37</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>530.5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>0.36</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>539</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.84</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>539</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.37</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>539</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>137</v>
+      </c>
+      <c r="E17">
+        <v>0.59</v>
+      </c>
+      <c r="F17">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>541.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.02</v>
+      </c>
+      <c r="K17">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>541.5</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.45</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>541.5</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>138</v>
+      </c>
+      <c r="E18">
+        <v>0.72</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>557.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.91</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>557.5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.39</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>557.5</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>139</v>
+      </c>
+      <c r="E19">
+        <v>0.33</v>
+      </c>
+      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>615</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.25</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>615</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.37</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>615</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>0.64</v>
+      </c>
+      <c r="F20">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>530</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.39</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>530</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.47</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>530</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>141</v>
+      </c>
+      <c r="E21">
+        <v>0.47</v>
+      </c>
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>44.21</v>
-      </c>
-      <c r="F2">
-        <v>353</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>340.5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>163.56</v>
-      </c>
-      <c r="K2">
-        <v>255</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>340.5</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>337.15</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>340.5</v>
-      </c>
-      <c r="R2">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>556.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>556.5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.34</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>556.5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>0.61</v>
+      </c>
+      <c r="F22">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>594.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.23</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>594.5</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.61</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>594.5</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>0.67</v>
+      </c>
+      <c r="F23">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>572</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.39</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>572</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.52</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>572</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <v>0.47</v>
+      </c>
+      <c r="F24">
+        <v>63</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>638</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.45</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>638</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.62</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>638</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>145</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>586</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.86</v>
+      </c>
+      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>586</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.61</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>586</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>146</v>
+      </c>
+      <c r="E26">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F26">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>589</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.31</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>589</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.62</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>589</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>147</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>661.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.3</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>661.5</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0.52</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>661.5</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>148</v>
+      </c>
+      <c r="E28">
+        <v>0.41</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>613.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.28</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>613.5</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.55</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>613.5</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F29">
+        <v>61</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>604</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.58</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>604</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>604</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>0.42</v>
+      </c>
+      <c r="F30">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>612.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.78</v>
+      </c>
+      <c r="K30">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>612.5</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0.55</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>612.5</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>151</v>
+      </c>
+      <c r="E31">
+        <v>0.95</v>
+      </c>
+      <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>596</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.37</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>596</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.75</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>596</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>152</v>
+      </c>
+      <c r="E32">
+        <v>0.78</v>
+      </c>
+      <c r="F32">
+        <v>68</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>581</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.86</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>581</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0.86</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>581</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>153</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>71</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>532</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.45</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>532</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0.8</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>532</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>154</v>
+      </c>
+      <c r="E34">
+        <v>0.58</v>
+      </c>
+      <c r="F34">
+        <v>63</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>574</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.52</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>574</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.78</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>574</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>155</v>
+      </c>
+      <c r="E35">
+        <v>1.03</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>606</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.65</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>606</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>606</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>156</v>
+      </c>
+      <c r="E36">
+        <v>0.78</v>
+      </c>
+      <c r="F36">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>604.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.53</v>
+      </c>
+      <c r="K36">
+        <v>27</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>604.5</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.77</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>604.5</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>157</v>
+      </c>
+      <c r="E37">
+        <v>1.12</v>
+      </c>
+      <c r="F37">
+        <v>104</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>642</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.91</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>642</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.66</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>642</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>158</v>
+      </c>
+      <c r="E38">
+        <v>0.58</v>
+      </c>
+      <c r="F38">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>591</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.69</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>591</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>591</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>159</v>
+      </c>
+      <c r="E39">
+        <v>1.14</v>
+      </c>
+      <c r="F39">
+        <v>86</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>599.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.84</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>599.5</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>599.5</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <v>1.18</v>
+      </c>
+      <c r="F40">
+        <v>111</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>568</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.7</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>568</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1.14</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>568</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>161</v>
+      </c>
+      <c r="E41">
+        <v>0.92</v>
+      </c>
+      <c r="F41">
+        <v>82</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>622.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.33</v>
+      </c>
+      <c r="K41">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>622.5</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.98</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>622.5</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>162</v>
+      </c>
+      <c r="E42">
+        <v>1.11</v>
+      </c>
+      <c r="F42">
+        <v>85</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>609.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.34</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>609.5</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1.41</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>609.5</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>163</v>
+      </c>
+      <c r="E43">
+        <v>1.94</v>
+      </c>
+      <c r="F43">
+        <v>96</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>620</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.75</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>620</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1.17</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>620</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>164</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>89</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>611.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2.12</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>611.5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1.08</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>611.5</v>
+      </c>
+      <c r="R44">
         <v>0</v>
       </c>
     </row>
